--- a/fuentes/contenidos/grado08/guion04/SolicitudGrafica_CN_08_04_CO_REC10.xlsx
+++ b/fuentes/contenidos/grado08/guion04/SolicitudGrafica_CN_08_04_CO_REC10.xlsx
@@ -1458,6 +1458,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1541,18 +1553,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -2303,9 +2303,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2343,14 +2343,14 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="F2" s="79" t="s">
+      <c r="D2" s="91"/>
+      <c r="F2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="80"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="55"/>
       <c r="I2" s="55"/>
       <c r="J2" s="16"/>
@@ -2360,14 +2360,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="88">
+      <c r="C3" s="92">
         <v>8</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="F3" s="81">
+      <c r="D3" s="93"/>
+      <c r="F3" s="85">
         <v>42069</v>
       </c>
-      <c r="G3" s="82"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="55"/>
       <c r="I3" s="55"/>
       <c r="J3" s="16"/>
@@ -2377,10 +2377,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="5"/>
       <c r="F4" s="54" t="s">
         <v>55</v>
@@ -2398,10 +2398,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="91"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="5"/>
       <c r="F5" s="52" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2452,12 +2452,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="89"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2506,7 +2506,7 @@
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="110">
+      <c r="B10" s="79">
         <v>88564873</v>
       </c>
       <c r="C10" s="27" t="str">
@@ -2535,7 +2535,7 @@
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J10" s="111" t="s">
+      <c r="J10" s="80" t="s">
         <v>151</v>
       </c>
       <c r="K10" s="19"/>
@@ -2545,7 +2545,7 @@
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="79" t="s">
         <v>152</v>
       </c>
       <c r="C11" s="27" t="str">
@@ -2574,7 +2574,7 @@
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J11" s="112" t="s">
+      <c r="J11" s="81" t="s">
         <v>153</v>
       </c>
       <c r="K11" s="15"/>
@@ -2584,7 +2584,7 @@
         <f t="shared" ref="A12:A30" si="3">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE(LEFT(A11,3),IF(MID(A11,4,2)+1&lt;10,CONCATENATE("0",MID(A11,4,2)+1))),"")</f>
         <v>IMG03</v>
       </c>
-      <c r="B12" s="110">
+      <c r="B12" s="79">
         <v>209370886</v>
       </c>
       <c r="C12" s="27" t="str">
@@ -2613,7 +2613,7 @@
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J12" s="112" t="s">
+      <c r="J12" s="81" t="s">
         <v>154</v>
       </c>
       <c r="K12" s="19"/>
@@ -2623,7 +2623,7 @@
         <f t="shared" si="3"/>
         <v>IMG04</v>
       </c>
-      <c r="B13" s="110">
+      <c r="B13" s="79">
         <v>48176035</v>
       </c>
       <c r="C13" s="27" t="str">
@@ -2652,7 +2652,7 @@
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J13" s="112" t="s">
+      <c r="J13" s="81" t="s">
         <v>155</v>
       </c>
       <c r="K13" s="19"/>
@@ -2662,7 +2662,7 @@
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
-      <c r="B14" s="110">
+      <c r="B14" s="79">
         <v>144605633</v>
       </c>
       <c r="C14" s="27" t="str">
@@ -2691,7 +2691,7 @@
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J14" s="112" t="s">
+      <c r="J14" s="81" t="s">
         <v>156</v>
       </c>
       <c r="K14" s="19"/>
@@ -2701,7 +2701,7 @@
         <f t="shared" si="3"/>
         <v>IMG06</v>
       </c>
-      <c r="B15" s="110">
+      <c r="B15" s="79">
         <v>214349368</v>
       </c>
       <c r="C15" s="27" t="str">
@@ -2730,7 +2730,7 @@
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J15" s="113" t="s">
+      <c r="J15" s="82" t="s">
         <v>157</v>
       </c>
       <c r="K15" s="21"/>
@@ -5212,25 +5212,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="96"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="46"/>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
       <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -5238,11 +5238,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="46"/>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="105"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="47"/>
       <c r="H3" s="37" t="s">
         <v>18</v>
@@ -5293,11 +5293,11 @@
       <c r="C5" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="106" t="str">
+      <c r="D5" s="110" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="107"/>
+      <c r="E5" s="111"/>
       <c r="F5" s="47"/>
       <c r="H5" s="37" t="s">
         <v>22</v>
@@ -5342,12 +5342,12 @@
       <c r="C7" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="96" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="93"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
       <c r="H7" s="37" t="s">
         <v>24</v>
       </c>
@@ -5441,14 +5441,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="100"/>
       <c r="I13" s="37" t="s">
         <v>33</v>
       </c>
@@ -5481,12 +5481,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="46"/>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="103"/>
       <c r="J15" s="37">
         <v>12</v>
       </c>
@@ -5526,12 +5526,12 @@
       <c r="C17" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="100" t="str">
+      <c r="D17" s="104" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="101"/>
-      <c r="F17" s="102"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="106"/>
       <c r="J17" s="37">
         <v>14</v>
       </c>
@@ -5547,12 +5547,12 @@
       <c r="C18" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="92" t="str">
+      <c r="D18" s="96" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="97"/>
       <c r="J18" s="37">
         <v>15</v>
       </c>
@@ -5944,41 +5944,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="109" t="s">
+      <c r="H1" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
       <c r="H2" s="56" t="s">
         <v>65</v>
       </c>
